--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N2">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O2">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P2">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q2">
-        <v>0.03958117803966667</v>
+        <v>0.1271478253747778</v>
       </c>
       <c r="R2">
-        <v>0.356230602357</v>
+        <v>1.144330428373</v>
       </c>
       <c r="S2">
-        <v>2.54391825832962E-05</v>
+        <v>0.0008495659462619922</v>
       </c>
       <c r="T2">
-        <v>4.04613881132662E-05</v>
+        <v>0.001302853589922392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N3">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O3">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P3">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q3">
-        <v>0.09825638192455556</v>
+        <v>5.686195644292834</v>
       </c>
       <c r="R3">
-        <v>0.884307437321</v>
+        <v>34.117173865757</v>
       </c>
       <c r="S3">
-        <v>6.315026898006655E-05</v>
+        <v>0.03799355725459967</v>
       </c>
       <c r="T3">
-        <v>0.0001004414168691639</v>
+        <v>0.03884339815398086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.996239666666667</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H4">
-        <v>17.988719</v>
+        <v>517.298425</v>
       </c>
       <c r="I4">
-        <v>0.02748578043016502</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J4">
-        <v>0.02925508126773497</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N4">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O4">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P4">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q4">
-        <v>0.1871166562914444</v>
+        <v>2.825541474952777</v>
       </c>
       <c r="R4">
-        <v>1.684049906623</v>
+        <v>25.429873274575</v>
       </c>
       <c r="S4">
-        <v>0.0001202615743018957</v>
+        <v>0.01887947206171364</v>
       </c>
       <c r="T4">
-        <v>0.0001912777746300884</v>
+        <v>0.02895265289253689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.996239666666667</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H5">
-        <v>17.988719</v>
+        <v>517.298425</v>
       </c>
       <c r="I5">
-        <v>0.02748578043016502</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J5">
-        <v>0.02925508126773497</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N5">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O5">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P5">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q5">
-        <v>42.44055388147284</v>
+        <v>126.3614346551958</v>
       </c>
       <c r="R5">
-        <v>254.643323288837</v>
+        <v>758.168607931175</v>
       </c>
       <c r="S5">
-        <v>0.02727692940429977</v>
+        <v>0.8443115050330995</v>
       </c>
       <c r="T5">
-        <v>0.02892290068812245</v>
+        <v>0.8631970872381811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>172.4328083333333</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H6">
-        <v>517.298425</v>
+        <v>0.157217</v>
       </c>
       <c r="I6">
-        <v>0.7904037483947683</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J6">
-        <v>0.8412832210590593</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N6">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O6">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P6">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q6">
-        <v>1.138228967808333</v>
+        <v>0.0008587367225555555</v>
       </c>
       <c r="R6">
-        <v>10.244060710275</v>
+        <v>0.007728630503</v>
       </c>
       <c r="S6">
-        <v>0.0007315500944578966</v>
+        <v>5.737836837849319E-06</v>
       </c>
       <c r="T6">
-        <v>0.001163541013915795</v>
+        <v>8.799271387315693E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>172.4328083333333</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H7">
-        <v>517.298425</v>
+        <v>0.157217</v>
       </c>
       <c r="I7">
-        <v>0.7904037483947683</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J7">
-        <v>0.8412832210590593</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N7">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O7">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P7">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q7">
-        <v>2.825541474952777</v>
+        <v>0.03840368482116667</v>
       </c>
       <c r="R7">
-        <v>25.429873274575</v>
+        <v>0.230422108927</v>
       </c>
       <c r="S7">
-        <v>0.001816001166159457</v>
+        <v>0.0002566026020411503</v>
       </c>
       <c r="T7">
-        <v>0.002888376140134654</v>
+        <v>0.0002623422958697876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>172.4328083333333</v>
+        <v>19.452549</v>
       </c>
       <c r="H8">
-        <v>517.298425</v>
+        <v>38.905098</v>
       </c>
       <c r="I8">
-        <v>0.7904037483947683</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J8">
-        <v>0.8412832210590593</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N8">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O8">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P8">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q8">
-        <v>5.380880739247221</v>
+        <v>0.318755952097</v>
       </c>
       <c r="R8">
-        <v>48.42792665322499</v>
+        <v>1.912535712582</v>
       </c>
       <c r="S8">
-        <v>0.003458340917682416</v>
+        <v>0.00212983746494849</v>
       </c>
       <c r="T8">
-        <v>0.005500541286661362</v>
+        <v>0.002177477726022713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,22 +968,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>172.4328083333333</v>
+        <v>19.452549</v>
       </c>
       <c r="H9">
-        <v>517.298425</v>
+        <v>38.905098</v>
       </c>
       <c r="I9">
-        <v>0.7904037483947683</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J9">
-        <v>0.8412832210590593</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N9">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O9">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P9">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q9">
-        <v>1220.455535439379</v>
+        <v>14.2551294217095</v>
       </c>
       <c r="R9">
-        <v>7322.733212636274</v>
+        <v>57.020517686838</v>
       </c>
       <c r="S9">
-        <v>0.7843978562164686</v>
+        <v>0.09524875852610676</v>
       </c>
       <c r="T9">
-        <v>0.8317307626183476</v>
+        <v>0.06491952352709364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.194746</v>
+      </c>
+      <c r="I10">
+        <v>0.0003249632743909987</v>
+      </c>
+      <c r="J10">
+        <v>0.0003358653050055137</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.08681966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.260459</v>
-      </c>
-      <c r="I10">
-        <v>0.0003979671306811982</v>
-      </c>
-      <c r="J10">
-        <v>0.0004235848707133055</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N10">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O10">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P10">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q10">
-        <v>0.0005730966196666667</v>
+        <v>0.001063724290444445</v>
       </c>
       <c r="R10">
-        <v>0.005157869577000001</v>
+        <v>0.009573518614</v>
       </c>
       <c r="S10">
-        <v>3.683344020473469E-07</v>
+        <v>7.107506012859955E-06</v>
       </c>
       <c r="T10">
-        <v>5.858411978414472E-07</v>
+        <v>1.089973034464582E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,675 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08681966666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H11">
-        <v>0.260459</v>
+        <v>0.194746</v>
       </c>
       <c r="I11">
-        <v>0.0003979671306811982</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J11">
-        <v>0.0004235848707133055</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N11">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O11">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P11">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q11">
-        <v>0.001422655997888889</v>
+        <v>0.04757096245433334</v>
       </c>
       <c r="R11">
-        <v>0.012803903981</v>
+        <v>0.285425774726</v>
       </c>
       <c r="S11">
-        <v>9.143539297200182E-07</v>
+        <v>0.0003178557683781388</v>
       </c>
       <c r="T11">
-        <v>1.454293159858996E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.08681966666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.260459</v>
-      </c>
-      <c r="I12">
-        <v>0.0003979671306811982</v>
-      </c>
-      <c r="J12">
-        <v>0.0004235848707133055</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P12">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q12">
-        <v>0.002709265578111111</v>
-      </c>
-      <c r="R12">
-        <v>0.024383390203</v>
-      </c>
-      <c r="S12">
-        <v>1.741269591297604E-06</v>
-      </c>
-      <c r="T12">
-        <v>2.769514488629135E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.08681966666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.260459</v>
-      </c>
-      <c r="I13">
-        <v>0.0003979671306811982</v>
-      </c>
-      <c r="J13">
-        <v>0.0004235848707133055</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.0778615</v>
-      </c>
-      <c r="N13">
-        <v>14.155723</v>
-      </c>
-      <c r="O13">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P13">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q13">
-        <v>0.6144975761428334</v>
-      </c>
-      <c r="R13">
-        <v>3.686985456857</v>
-      </c>
-      <c r="S13">
-        <v>0.0003949431727581332</v>
-      </c>
-      <c r="T13">
-        <v>0.0004187752218669759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>39.5815265</v>
-      </c>
-      <c r="H14">
-        <v>79.16305299999999</v>
-      </c>
-      <c r="I14">
-        <v>0.1814352339046085</v>
-      </c>
-      <c r="J14">
-        <v>0.1287429943686935</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.006601</v>
-      </c>
-      <c r="N14">
-        <v>0.019803</v>
-      </c>
-      <c r="O14">
-        <v>0.0009255397585646605</v>
-      </c>
-      <c r="P14">
-        <v>0.001383055057785483</v>
-      </c>
-      <c r="Q14">
-        <v>0.2612776564265</v>
-      </c>
-      <c r="R14">
-        <v>1.567665938559</v>
-      </c>
-      <c r="S14">
-        <v>0.000167925522583194</v>
-      </c>
-      <c r="T14">
-        <v>0.0001780586495160696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>39.5815265</v>
-      </c>
-      <c r="H15">
-        <v>79.16305299999999</v>
-      </c>
-      <c r="I15">
-        <v>0.1814352339046085</v>
-      </c>
-      <c r="J15">
-        <v>0.1287429943686935</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.01638633333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.049159</v>
-      </c>
-      <c r="O15">
-        <v>0.00229756142964602</v>
-      </c>
-      <c r="P15">
-        <v>0.003433298166221107</v>
-      </c>
-      <c r="Q15">
-        <v>0.6485960870711666</v>
-      </c>
-      <c r="R15">
-        <v>3.891576522427</v>
-      </c>
-      <c r="S15">
-        <v>0.0004168585953980323</v>
-      </c>
-      <c r="T15">
-        <v>0.0004420130864798498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>39.5815265</v>
-      </c>
-      <c r="H16">
-        <v>79.16305299999999</v>
-      </c>
-      <c r="I16">
-        <v>0.1814352339046085</v>
-      </c>
-      <c r="J16">
-        <v>0.1287429943686935</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P16">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q16">
-        <v>1.235167922116833</v>
-      </c>
-      <c r="R16">
-        <v>7.411007532700999</v>
-      </c>
-      <c r="S16">
-        <v>0.0007938536407448806</v>
-      </c>
-      <c r="T16">
-        <v>0.0008417571373905915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>39.5815265</v>
-      </c>
-      <c r="H17">
-        <v>79.16305299999999</v>
-      </c>
-      <c r="I17">
-        <v>0.1814352339046085</v>
-      </c>
-      <c r="J17">
-        <v>0.1287429943686935</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>7.0778615</v>
-      </c>
-      <c r="N17">
-        <v>14.155723</v>
-      </c>
-      <c r="O17">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P17">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q17">
-        <v>280.1525625255797</v>
-      </c>
-      <c r="R17">
-        <v>1120.610250102319</v>
-      </c>
-      <c r="S17">
-        <v>0.1800565961458824</v>
-      </c>
-      <c r="T17">
-        <v>0.127281165495307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.06048866666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.181466</v>
-      </c>
-      <c r="I18">
-        <v>0.000277270139777064</v>
-      </c>
-      <c r="J18">
-        <v>0.0002951184337990267</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.006601</v>
-      </c>
-      <c r="N18">
-        <v>0.019803</v>
-      </c>
-      <c r="O18">
-        <v>0.0009255397585646605</v>
-      </c>
-      <c r="P18">
-        <v>0.001383055057785483</v>
-      </c>
-      <c r="Q18">
-        <v>0.0003992856886666667</v>
-      </c>
-      <c r="R18">
-        <v>0.003593571198</v>
-      </c>
-      <c r="S18">
-        <v>2.566245382264534E-07</v>
-      </c>
-      <c r="T18">
-        <v>4.081650425114743E-07</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.06048866666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.181466</v>
-      </c>
-      <c r="I19">
-        <v>0.000277270139777064</v>
-      </c>
-      <c r="J19">
-        <v>0.0002951184337990267</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.01638633333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.049159</v>
-      </c>
-      <c r="O19">
-        <v>0.00229756142964602</v>
-      </c>
-      <c r="P19">
-        <v>0.003433298166221107</v>
-      </c>
-      <c r="Q19">
-        <v>0.0009911874548888889</v>
-      </c>
-      <c r="R19">
-        <v>0.008920687094000001</v>
-      </c>
-      <c r="S19">
-        <v>6.37045178744343E-07</v>
-      </c>
-      <c r="T19">
-        <v>1.013229577580244E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.06048866666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.181466</v>
-      </c>
-      <c r="I20">
-        <v>0.000277270139777064</v>
-      </c>
-      <c r="J20">
-        <v>0.0002951184337990267</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P20">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q20">
-        <v>0.001887589169111111</v>
-      </c>
-      <c r="R20">
-        <v>0.016988302522</v>
-      </c>
-      <c r="S20">
-        <v>1.213170701163757E-06</v>
-      </c>
-      <c r="T20">
-        <v>1.929565560005892E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.06048866666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.181466</v>
-      </c>
-      <c r="I21">
-        <v>0.000277270139777064</v>
-      </c>
-      <c r="J21">
-        <v>0.0002951184337990267</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.0778615</v>
-      </c>
-      <c r="N21">
-        <v>14.155723</v>
-      </c>
-      <c r="O21">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P21">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q21">
-        <v>0.4281304049863334</v>
-      </c>
-      <c r="R21">
-        <v>2.568782429918</v>
-      </c>
-      <c r="S21">
-        <v>0.0002751632993589294</v>
-      </c>
-      <c r="T21">
-        <v>0.0002917674736189291</v>
+        <v>0.0003249655746608679</v>
       </c>
     </row>
   </sheetData>
